--- a/deprecated/Planos de Teste (base).xlsx
+++ b/deprecated/Planos de Teste (base).xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Plano de testes" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Massa de testes" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+  <si>
+    <t>RF</t>
+  </si>
   <si>
     <t>Cenário</t>
   </si>
@@ -25,7 +29,10 @@
     <t>Resultado Esperado</t>
   </si>
   <si>
-    <t>Sucesso</t>
+    <t>Resultado Obtido</t>
+  </si>
+  <si>
+    <t>RF02</t>
   </si>
   <si>
     <t>Login de usuário</t>
@@ -34,53 +41,509 @@
     <t>Login com sucesso</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Digitar código da clínica e e-mail cadastrados. Selecionar o botão "Entrar"
-3. Digitar a senha e selecionar botão “Entrar”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Exibir a tela de login
-2. Deve ser redirecionada para uma página com o campo de inserção da senha
-3. Observar que o usuário consegue fazer login com sucesso
-</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Digitar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>código da clínica válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>e-mail válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">. Selecionar o botão "Avançar";
+3. Digitar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>senha válida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e selecionar botão “Login”.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login;
+2. Deve ser redirecionada para uma página com o campo de inserção da senha;
+3. Deve ser redirecionada à página inicial da CertVet.</t>
   </si>
   <si>
     <t>Usuário não cadastrado tentando login</t>
   </si>
   <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Inserir email cadastrado
-3. Inserir codinome da clínica no qual há intenção de logar
-4. Colocar a senha de acesso
-5. Pressionar o botão "Login"</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
-  </si>
-  <si>
-    <t>Usuário tentando logar com codinome ou senha inválida</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o codinome ou a senha está errada, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O codinome ou a senha está errada" e o login não será feito</t>
-  </si>
-  <si>
-    <t>Usuário cadastrado realizando reset de senha</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Clicar no botão que fica logo abaixo do campo de senha "Redefinir minha senha"
-3. Esperar a página de redefinir a senha ser carregada
-4. Preencher o e-mail cadastrado no campo de e-mail que aparecerá
-5. Clicar no botão "Próximo"
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Digitar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>código da clínica válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>e-mail válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">. Selecionar o botão "Avançar";
+3. Digitar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>senha válida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e selecionar botão “Login”.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login;
+2. Deve ser redirecionada para uma página com o campo de inserção da senha;
+3. Deve ser exibida uma mensagem de login não concluído, usuário não cadastrado. A tela será mantida no formulário de login esperando a inserção de daods válidos.</t>
+  </si>
+  <si>
+    <t>Usuário tentando logar com código ou senha inválida</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Digitar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>código da clínica inválido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>e-mail válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">. Selecionar o botão "Avançar";
+3. Digitar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>senha válida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e selecionar botão “Login”.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login;
+2. Deve ser redirecionada para uma página com o campo de inserção da senha;
+3. Deve ser exibida uma mensagem de login não concluído. A tela será mantida no formulário de login esperando a correção do(s) campo(s) indicado(s) com preenchimento incorreto.</t>
+  </si>
+  <si>
+    <t>Usuário tentando fazer login e acesso à internet é interrompido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Digitar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>código da clínica válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>e-mail válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">. Selecionar o botão "Avançar";
+3. Desconectar a rede, digitar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>senha válida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e selecionar botão “Login”.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login;
+2. Deve ser redirecionada para uma página com o campo de inserção da senha;
+3. Deve ser exibida uma mensagem informando que o acesso à internet foi interrompido e deve ser verificado pelo usuário.</t>
+  </si>
+  <si>
+    <t>Usuário tentando fazer login e o back-end da aplicação cai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Digitar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>código da clínica válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>e-mail válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">. Selecionar o botão "Avançar";
+3. Simular a queda do back-end parando o servidor, digitar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>senha válida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e selecionar botão “Login”;</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login;
+2. Deve ser redirecionada para uma página com o campo de inserção da senha;
+3. Deve ser exibida uma mensagem de erro informando que o back-end está indisponível e a equipe da CertVet está tratando o mesmo.</t>
+  </si>
+  <si>
+    <t>Usuário tentando fazer login e ocorre erro devido o alto tráfego</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Digitar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>código da clínica válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>e-mail válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">. Selecionar o botão "Avançar";
+3. Digitar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>senha válida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e selecionar botão “Login”.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login;
+2. Deve ser redirecionada para uma página com o campo de inserção da senha;
+3. Deve ser exibida uma mensagem de erro informando que o login não foi bem-sucedido, o problema está sendo solucionado e o usuário deve tentar novamente mais tarde.</t>
+  </si>
+  <si>
+    <t>Usuário tentando fazer login e erro ocorre devido à timed-out</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Digitar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>código da clínica válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>e-mail válido</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">. Selecionar o botão "Avançar";
+3. Digitar a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>senha válida</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> e selecionar botão “Login”.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login;
+2. Deve ser redirecionada para uma página com o campo de inserção da senha;
+3. Deve ser exibida uma mensagem de erro informando que o processo de login está demorando mais do que o normal e o usuário deve esperar alguns minutos antes de tentar novamente.</t>
+  </si>
+  <si>
+    <t>RF03</t>
+  </si>
+  <si>
+    <t>Usuário cadastrado alterando senha</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login);
+2. Selecionar o botão "Redefinir minha senha";
+4. Preencher o e-mail cadastrado e selecionar o botão "Próximo";
 6. Entrar no e-mail dele e clicar no botão de "Mudar a senha" no e-mail que foi enviado a ele
 7. Esperar a tela de mudança de senha ser exibida
 8. Inserir a senha de interesse
@@ -88,8 +551,7 @@
   </si>
   <si>
     <t>1. Carregar a tela de login
-2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha
-3. Página inicial de redefinição de senha carregada
+2. Deve ser redirecionada para a página com o formulário de redefinição de senha;
 4. O sistema aqui esperará o cliente preencher o e-mail
 5. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
 6. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha
@@ -98,107 +560,13 @@
 9. Realiza uma atualização na senha daquele usuário</t>
   </si>
   <si>
-    <t>Usuário tentando fazer login e acesso à internet é interrompido</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Digitar código da clínica e e-mail cadastrados. Selecionar o botão "Entrar"
-3. Desconectar a rede, digitar a senha e selecionar botão “Entrar”
-4. Reconectar à rede e tentar fazer login novamente selecionando o botão “Entrar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Exibir a tela de login
-2. Deve ser redirecionada para uma página com o campo de inserção da senha
-3. Deve ser exibida uma mensagem informando que o acesso à internet foi interrompido e deve ser verificado pelo usuário
-4. Observar que o usuário consegue fazer login com sucesso
-</t>
-  </si>
-  <si>
-    <t>Usuário tentando fazer login e o backend da aplicação cai</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Digitar código da clínica e e-mail cadastrados. Selecionar o botão "Entrar"
-3. Simular a queda do back-end parando o servidor, digitar a senha e selecionar botão “Entrar”
-4. Restaurar o back-end e tentar fazer login novamente selecionando o botão “Entrar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Exibir a tela de login
-2. Deve ser redirecionada para uma página com o campo de inserção da senha
-3. Deve ser exibida uma mensagem de erro informando que o back-end está indisponível e a equipe da CertVet está tratando o mesmo
-4. Observar que o usuário consegue fazer login com sucesso
-</t>
-  </si>
-  <si>
-    <t>Usuário tentando fazer login e energia elétrica cai</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Digitar código da clínica e e-mail cadastrados. Selecionar o botão "Entrar"
-3. Digitar a senha, selecionar o botão “Entrar” e simular a queda de energia desligando o dispositivo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">4. Ligar novamente o dispositivo e acessar à CertVet e </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <strike/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>tentar fazer login novamente selecionando o botão “Entrar”</t>
-    </r>
-  </si>
-  <si>
-    <t>Usuário tentando fazer login e ocorre erro devido o alto tráfego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Digitar código da clínica e e-mail cadastrados. Selecionar o botão "Entrar"
-3. Digitar a senha e selecionar o botão “Entrar”
-</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Deve ser redirecionada para uma página com o campo de inserção da senha
-3. Deve ser exibida uma mensagem de erro informando que o login não foi bem-sucedido, o problema está sendo solucionado e o usuário deve tentar novamente mais tarde</t>
-  </si>
-  <si>
-    <t>Usuário tentando fazer login e erro ocorre devido à timed-out</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Deve ser redirecionada para uma página com o campo de inserção da senha
-3. Deve ser exibida uma mensagem de erro informando que o processo de login está demorando mais do que o normal e o usuário deve esperar alguns minutos antes de tentar novamente</t>
-  </si>
-  <si>
-    <t>Usuário tentando fazer login e erro ocorre devido à token expirado</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Deve ser redirecionada para uma página com o campo de inserção da senha
-3. Deve ser redirecionada para a primeira página de login novamente e exibir uma mensagem de erro informando que a sessão expirou</t>
+    <t>RF04</t>
   </si>
   <si>
     <t>Agendamento</t>
   </si>
   <si>
-    <t>Fazer agendamento com sucesso</t>
+    <t>Agendar consulta com sucesso</t>
   </si>
   <si>
     <t>1. Entrar na aba de "Agendamentos"
@@ -208,12 +576,12 @@
   </si>
   <si>
     <t>1. Sistema carrega a página com um calendário contendo os agendamentos cadastrados
-2. Ao clicar no dia, devem ser exibidos os horários disponíveis para agendamento
+2. Ao clicar no dia, devem ser exibidos os horários que já possuem consultas agendadas
 3. Deve ser exibido um formulário com os demais dados necessários para o agendamento da consulta (animal, tutor e veterinário)
 4. Observar exibição de banner verde com mensagem de agendamento concluído com sucesso. A tela será redirecionada para a tela de Agendamentos da clínica.</t>
   </si>
   <si>
-    <t>Mudança de dia e horário de um agendamento</t>
+    <t>Editando o agendamento de uma consulta</t>
   </si>
   <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
@@ -238,7 +606,10 @@
 9. Sistema transfere as informações digitadas no banco de dados</t>
   </si>
   <si>
-    <t>Desistência de marcar um agendamento</t>
+    <t>RF05</t>
+  </si>
+  <si>
+    <t>Cancelar uma consulta agendada</t>
   </si>
   <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
@@ -259,7 +630,7 @@
 7. Sistema apaga as informações daquela determinada consulta no banco de dados </t>
   </si>
   <si>
-    <t>Tentar agendar uma nova consulta em um horário indisponível</t>
+    <t>Agendar uma consulta em horário indisponível</t>
   </si>
   <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
@@ -276,7 +647,7 @@
 5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
   </si>
   <si>
-    <t>Fazer agendamento e acesso à internet é interrompido</t>
+    <t>Agendar uma consulta e acesso à internet é interrompido</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba de "Agendamentos"
@@ -334,12 +705,14 @@
     </r>
   </si>
   <si>
-    <t>Fazer agendamento em uma data que já passou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Entrar na aba de "Agendamentos" 
-2. Selecionar ano, mês e data já passados
-</t>
+    <t>Agendar uma consulta e o back-end da aplicação cai</t>
+  </si>
+  <si>
+    <t>Agendar uma consulta em data que já passou</t>
+  </si>
+  <si>
+    <t>1. Entrar na aba de "Agendamentos" 
+2. Selecionar ano, mês e data já passados (DATAS PASSADAS SÃO IMPOSSIBILITADAS DE SEREM AGENDADAS, NÃO SÃO CLICÁVEIS NO CALENDÁRIO)</t>
   </si>
   <si>
     <t xml:space="preserve">1. Sistema carrega a página de agendamentos com um calendário com todos os agendamentos
@@ -347,7 +720,7 @@
 </t>
   </si>
   <si>
-    <t>Fazer agendamento com um veterinário que já possui consulta marcada nesse horário</t>
+    <t>Agendar uma consulta com veterinário que já possui consulta marcada nesse horário</t>
   </si>
   <si>
     <t>1. Entrar na aba de "Agendamentos"
@@ -363,7 +736,7 @@
 </t>
   </si>
   <si>
-    <t>Fazer agendamento para um animal que já possui agendamento nesse horário</t>
+    <t>Agendar uma consulta para um animal que já possui consulta agendada nesse horário</t>
   </si>
   <si>
     <t>1. Entrar na aba de "Agendamentos"
@@ -379,7 +752,7 @@
 </t>
   </si>
   <si>
-    <t>Fazer agendamento em um dia em que a clínica está fechada</t>
+    <t>Agendar uma consulta em um dia em que a clínica está fechada</t>
   </si>
   <si>
     <t>1. Entrar na aba de "Agendamentos"
@@ -395,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t>Fazer agendamento sem preencher todos os campos obrigatórios</t>
+    <t>Agendar uma consulta sem preencher todos os campos obrigatórios</t>
   </si>
   <si>
     <t>1. Entrar na aba de "Agendamentos"
@@ -410,477 +783,32 @@
 4. Observar exibição de banner vermelho com mensagem de agendamento não concluído. A tela será mantida no formulário de agendamento esperando a correção do(s) campo(s) indicado(s) com preenchimento incorreto</t>
   </si>
   <si>
-    <t>Cadastro Tutor</t>
-  </si>
-  <si>
-    <t>Cadastro de novo tutor</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Clicar no botão "Novo cadastro"
-3. Preencher os dados de nome Matheus, Endereço Alameda dos Arapanés 1.441, CPF 012.032.761-89, Telefone (11) 3726-6207, E-mail matheus.leal@hotmail.com
-4. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Clicar no botão "Novo cadastro"
-3. Preencher os dados de do tutor
-4. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>Editar cadastro de um tutor</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Escrever o nome do tutor João
-3. Clicar no botão "Pesquisar"
-4. Procurar dentre todos os registros de João, o tutor que se deve editar o cadastro, João Almeida Silva Pereira
-5. Clicar no registro, fazendo com que esse abra
-6. Clicar em "Editar"
-7. Alterar os dados necessários
-8. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Escrever o nome do tutor cujos dados deverão ser alterados
-3. Clicar no botão "Pesquisar"
-4. Procurar dentre todos os registros que apareceram na pesquisa, o tutor que se deve editar o cadastro
-5. Clicar no registro, fazendo com que esse abra
-6. Clicar em "Editar"
-7. Alterar os dados necessários
-8. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>Cadastro animal</t>
-  </si>
-  <si>
-    <t>Cadastro de novo animal</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro animal"
-2. Clicar no botão "Novo cadastro"
-3. Preencher os dados de nome Lady, tutor Fernanda, pelagem preto, animal cachorro, sexo fêmea
-4. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro animal"
-2. Clicar no botão "Novo cadastro"
-3. Preencher os dados do animal a ser cadastrado
-4. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>Editar cadastro de um animal</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro animal"
-2. Escrever o nome do animal Lady
-3. Clicar no botão "Pesquisar"
-4. Procurar dentre todos os registros de Lady, o animal que se deve editar o cadastro
-5. Clicar no registro, fazendo com que esse abra
-6. Clicar em "Editar"
-7. Alterar os dados necessários
-8. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro animal"
-2. Escrever o nome do animal cujos dados deverão ser alterados
-3. Clicar no botão "Pesquisar"
-4. Procurar dentre todos os registros que apareceram na pesquisa, o animal que se deve editar o cadastro
-5. Clicar no registro, fazendo com que esse abra
-6. Clicar em "Editar"
-7. Alterar os dados necessários
-8. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>Estoque</t>
-  </si>
-  <si>
-    <t>Verificar quantidade disponível de um medicamento no estoque</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Estoque"
-2. Escrever no campo de busca o medicamento "Bayer Austria GmbH Herbststraße 6-10 1160 Wien AUSTRIA"
-3. Clicar no botão "Pesquisar"
-4. Encontre, dentre os resultados, aquele desejado
-5. Clique no registro desejado
-6. Abrirá um campo com maiores informações sobre o medicamento
-7. Clique no botão "Verificar estoque"
-8. Informações sobre a quantidade disponível e o histórico de entradas e saídas do medicamento aparecerá</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Estoque"
-2. Escrever no campo de busca o nome comercial ou o nome genérico do medicamento no qual se deseja saber a quantidade desponível
-3. Clicar no botão "Pesquisar"
-4. Encontre, dentre os resultados, aquele desejado
-5. Clique no registro desejado
-6. Abrirá um campo com maiores informações sobre o medicamento escolhido
-7. Clique no botão "Verificar estoque"
-8. Informações sobre a quantidade disponível e o histórico de entradas e saídas do medicamento aparecerá</t>
-  </si>
-  <si>
-    <t>Cadastro de usuário</t>
-  </si>
-  <si>
-    <t>Cadastro de usuário administrador não veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
-1.2 Selecionar opção negativa no campo "Veterinário"
-1.3 Informar o plano de serviço desejado
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV não é obrigatório
-1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
-2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para a tela inicial da CertVet.</t>
-  </si>
-  <si>
-    <t>Cadastro de usuário administrador veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.2 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
-1.3 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-1.4 Informar o plano de serviço desejado
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.2 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
-1.3 Preenchimento do número de CRMV torna-se obrigatório
-1.4 Plano escolhido pelo usuário é exibido na caixa de seleção
-2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para a tela inicial da CertVet.</t>
-  </si>
-  <si>
-    <t>Cadastro de usuário administrador veterinário não concluído devido o não preenchimento do campo obrigatório CPF</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário exceto campo CPF
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-1.3 Informar o plano de serviço desejado
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Cadastro de usuário administrador veterinário não concluído devido a invalidação do CPF informado</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo CPF, este deve ser preenchido com um número aleatório
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-1.3 Informar o plano de serviço desejado
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo CPF, indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Cadastro de usuário administrador veterinário não concluído devido e-mail informado ser inválido</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo e-mail, este deve ser preenchido com um valor aleatório e inválido
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-1.3 Informar o plano de serviço desejado
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo e-mail, indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Cadastro de usuário administrador veterinário não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos. No entanto, preencher o campo "Senha" com um valor e o campo "Confirmar senha" com um valor diferente.
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-1.3 Informar o plano de serviço desejado
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
-  </si>
-  <si>
-    <t>Cadastro de funcionário como usuário administrador</t>
-  </si>
-  <si>
-    <t>Cadastro de primeiro funcionário veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t>1. No painel incial, clicar em "Funcionários"
-1.1 Selecionar o botão "Cadastrar" e preencher os campos do formulário
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
-1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
-  </si>
-  <si>
-    <t>Cadastro novo funcionário veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
-1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
-  </si>
-  <si>
-    <t>Cadastro de funcionário não concluído devido a não seleção de clínica</t>
-  </si>
-  <si>
-    <t>1. No painel incial, clicar em "Funcionários"
-1.1 Selecionar o botão "Cadastrar" e preencher todos os campos do formulário, exceto o campo Clínica
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
-1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a seleção da clínica no campo indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Cadastro de funcionário veterinário não concluído devido ao preenchimento de número de CRMV inválido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. No painel incial, clicar em "Funcionários"
-1.1 Selecionar o botão "Cadastrar" e preencher todos os campos do formulário
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV inválido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
-1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo CRMV indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Cadastro de funcionário veterinário não concluído não concluído devido e-mail informado ser inválido</t>
-  </si>
-  <si>
-    <t>1. No painel incial, clicar em "Funcionários"
-1.1 Selecionar o botão "Cadastrar" e preencher todos os campos do formulário com dados válidos, exceto o campo e-mail, este deve ser preenchido com um valor aleatório e inválido
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
-1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo e-mail, indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Cadastro de funcionário veterinário não concluído não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. No painel incial, clicar em "Funcionários"
-1.1 Selecionar o botão "Cadastrar" e preencher todos os campos do formulário com dados válidos. No entanto, preencher o campo "Senha" com um valor e o campo "Confirmar senha" com um valor diferente
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
-1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
-  </si>
-  <si>
-    <t>Gerenciamento de funcionário da clínica</t>
-  </si>
-  <si>
-    <t>Pesquisar por funcionário com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. No painel incial, clicar em "Funcionários"
-2. Na barra de pesquisa, digitar o nome do funcionário desejado e selecionar botão "Procurar"
-</t>
-  </si>
-  <si>
-    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
-2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisar por funcionário não cadastrado </t>
-  </si>
-  <si>
-    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
-2. Deve ser exibida uma mensagem informando que não foi encontrado nenhum funcionário com o nome pesquisado</t>
-  </si>
-  <si>
-    <t>Consultar dados de funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. No painel incial, clicar em "Funcionários"
-2. Na barra de pesquisa, digitar o nome do funcionário desejado e selecionar botão "Procurar"
-3. Na seção do funcionário desejado, selecionar botão "Ver +"
-</t>
-  </si>
-  <si>
-    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
-2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado
-3. Deve ser exibido um modal contendo os demais dados relacionados ao funcionário</t>
-  </si>
-  <si>
-    <t>Editar dados de funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. No painel incial, clicar em "Funcionários"
-2. Na barra de pesquisa, digitar o nome do funcionário desejado e selecionar botão "Procurar"
-3. Na seção do funcionário desejado, selecionar botão "Editar" e preencher os campos que devem ser editados
-4. Selecionar o botão "Confirmar"</t>
-  </si>
-  <si>
-    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
-2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado
-3. A tela deve ser redirecionada a um formulário contendo os dados persistidos para este funcionário
-4. Observar exibição de banner verde com mensagem de edição concluída com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
-  </si>
-  <si>
-    <t>Excluir funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. No painel incial, clicar em "Funcionários"
-2. Na barra de pesquisa, digitar o nome do funcionário desejado e selecionar botão "Procurar"
-3. Na seção do funcionário desejado, selecionar botão "Excluir"
-3.1 No modal exibido, selecionar botão "Sim"
-</t>
-  </si>
-  <si>
-    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
-2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado
-3. Deve ser exibido um modal para confirmação da exclusão do funcionário
-3.1 Observar exibição de banner verde com mensagem de exclusão concluída com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
-  </si>
-  <si>
-    <t>Cadastro de funcionário como usuário funcionário</t>
-  </si>
-  <si>
-    <t>Completar cadastro de funcionário veterinário com sucesso</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
-1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
-1.2 Preenchimento do número de CRMV torna-se obrigatório
-2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para a tela inicial da CertVet.</t>
-  </si>
-  <si>
-    <t>Completar cadastro de funcionário não veterinário com sucesso</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
-1.2 Selecionar opção negativa no campo "Veterinário"
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
-1.2 Preenchimento do número de CRMV não é obrigatório
-2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para o painel inicial da CertVet.</t>
-  </si>
-  <si>
-    <t>Completar cadastro de funcionário não veterinário não concluído devido o não preenchimento do campo obrigatório CPF</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário exceto campo CPF
-1.2 Selecionar opção negativa no campo "Veterinário"
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
-1.2 Preenchimento do número de CRMV não é obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Completar cadastro de funcionário não veterinário não concluído devido a invalidação do CPF informado</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo CPF, este deve ser preenchido com um número aleatório
-1.2 Selecionar opção negativa no campo "Veterinário"
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
-1.2 Preenchimento do número de CRMV não é obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo CPF, indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Completar cadastro de funcionário não veterinário não concluído devido e-mail informado ser inválido</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo e-mail, este deve ser preenchido com um valor aleatório e inválido
-1.2 Selecionar opção negativa no campo "Veterinário" e preencher número de CRMV válido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
-1.2 Preenchimento do número de CRMV não é obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo e-mail, indicado com preenchimento incorreto</t>
-  </si>
-  <si>
-    <t>Completar cadastro de funcionário não veterinário não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
-  </si>
-  <si>
-    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
-1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos. No entanto, preencher o campo "Senha" com um valor e o campo "Confirmar senha" com um valor diferente.
-1.2 Selecionar opção negativa no campo "Veterinário" e preencher número de CRMV válido
-2. Selecionar o botão "Cadastrar"</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
-1.2 Preenchimento do número de CRMV não é obrigatório
-2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
+    <t>MASSA DE TESTES</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>código da clínica válido</t>
+  </si>
+  <si>
+    <t>e-mail válido</t>
+  </si>
+  <si>
+    <t>senha válida</t>
+  </si>
+  <si>
+    <t>código da clínica inválido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -897,8 +825,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,8 +846,14 @@
         <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -940,9 +881,25 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -951,43 +908,54 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -997,6 +965,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1204,806 +1176,688 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.29"/>
-    <col customWidth="1" min="2" max="2" width="17.43"/>
-    <col customWidth="1" min="3" max="3" width="43.71"/>
-    <col customWidth="1" min="4" max="4" width="59.14"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="66.0"/>
-    <col customWidth="1" min="7" max="7" width="8.57"/>
+    <col customWidth="1" min="1" max="2" width="13.29"/>
+    <col customWidth="1" min="3" max="3" width="17.43"/>
+    <col customWidth="1" min="4" max="4" width="43.71"/>
+    <col customWidth="1" min="5" max="5" width="59.14"/>
+    <col customWidth="1" min="6" max="6" width="17.71"/>
+    <col customWidth="1" min="7" max="7" width="66.0"/>
+    <col customWidth="1" min="8" max="8" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="116.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" ht="81.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" ht="129.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="88.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="139.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="195.0" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="95.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="107.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="87.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" ht="120.0" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="120.0" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" ht="93.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-    </row>
-    <row r="8" ht="129.0" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="101.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="93.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="198.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="101.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" ht="7.5" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" ht="101.25" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" ht="134.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" ht="7.5" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="197.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" ht="134.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" ht="159.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="135.0" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" ht="197.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" ht="159.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" ht="135.0" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" ht="152.25" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" ht="152.25" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="69.0" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" ht="69.0" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" ht="69.0" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" ht="125.25" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" ht="125.25" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="4"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" ht="123.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" ht="123.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="4"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" ht="126.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" ht="126.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="4"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" ht="137.25" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" ht="137.25" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" ht="7.5" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" ht="30.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" ht="30.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" ht="30.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="28.5" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="28.5" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" ht="31.5" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" ht="30.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" ht="30.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" ht="30.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" ht="30.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" ht="30.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" ht="30.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" ht="30.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" ht="30.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" ht="30.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" ht="30.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" ht="30.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" ht="30.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" ht="30.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" ht="30.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" ht="30.75" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" ht="30.75" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" ht="30.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" ht="30.75" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" ht="30.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" ht="30.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" ht="30.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" ht="121.5" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" ht="30.75" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" ht="30.75" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" ht="30.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" ht="30.75" customHeight="1"/>
-    <row r="53" ht="30.75" customHeight="1"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" ht="117.75" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" ht="119.25" customHeight="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" ht="136.5" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" ht="142.5" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" ht="146.25" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" ht="153.75" customHeight="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" ht="131.25" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" ht="134.25" customHeight="1">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" ht="147.75" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" ht="143.25" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" ht="145.5" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" ht="156.75" customHeight="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" ht="90.0" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" ht="87.75" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" ht="114.0" customHeight="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" ht="146.25" customHeight="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" ht="142.5" customHeight="1">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" ht="112.5" customHeight="1">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" ht="118.5" customHeight="1">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" ht="135.75" customHeight="1">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" ht="136.5" customHeight="1">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" ht="140.25" customHeight="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" ht="168.0" customHeight="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" ht="30.75" customHeight="1">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
     <row r="54" ht="30.75" customHeight="1"/>
     <row r="55" ht="30.75" customHeight="1"/>
     <row r="56" ht="30.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="57" ht="30.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -2953,10 +2807,110 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.7875" footer="0.0" header="0.0" left="0.511805555555556" right="0.511805555555556" top="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.43"/>
+    <col customWidth="1" min="2" max="2" width="16.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>